--- a/saved_solutions/case_001/case_001_best_state.xlsx
+++ b/saved_solutions/case_001/case_001_best_state.xlsx
@@ -477,22 +477,22 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="B2" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C2" t="n">
-        <v>115</v>
+        <v>142</v>
       </c>
       <c r="D2" t="n">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="E2" t="n">
-        <v>125</v>
+        <v>144</v>
       </c>
       <c r="F2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
@@ -500,91 +500,91 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B3" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C3" t="n">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="D3" t="n">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E3" t="n">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="F3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="B4" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C4" t="n">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="D4" t="n">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="E4" t="n">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="F4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>98</v>
+        <v>71</v>
       </c>
       <c r="B5" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="n">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D5" t="n">
-        <v>98</v>
+        <v>71</v>
       </c>
       <c r="E5" t="n">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="F5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="B6" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C6" t="n">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="D6" t="n">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="E6" t="n">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="F6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
@@ -592,65 +592,65 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="B7" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C7" t="n">
-        <v>113</v>
+        <v>143</v>
       </c>
       <c r="D7" t="n">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="E7" t="n">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="F7" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G7" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B8" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C8" t="n">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="D8" t="n">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E8" t="n">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="F8" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G8" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="B9" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C9" t="n">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="D9" t="n">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="E9" t="n">
-        <v>125</v>
+        <v>144</v>
       </c>
       <c r="F9" t="n">
         <v>1</v>
@@ -661,134 +661,134 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="B10" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C10" t="n">
-        <v>114</v>
+        <v>128</v>
       </c>
       <c r="D10" t="n">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="E10" t="n">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="F10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B11" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C11" t="n">
-        <v>139</v>
+        <v>115</v>
       </c>
       <c r="D11" t="n">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="E11" t="n">
-        <v>113</v>
+        <v>136</v>
       </c>
       <c r="F11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B12" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C12" t="n">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="D12" t="n">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E12" t="n">
-        <v>112</v>
+        <v>137</v>
       </c>
       <c r="F12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>69</v>
+        <v>89</v>
       </c>
       <c r="B13" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C13" t="n">
-        <v>114</v>
+        <v>135</v>
       </c>
       <c r="D13" t="n">
-        <v>69</v>
+        <v>89</v>
       </c>
       <c r="E13" t="n">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="F13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="B14" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C14" t="n">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="D14" t="n">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="E14" t="n">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F14" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G14" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="B15" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" t="n">
-        <v>112</v>
+        <v>133</v>
       </c>
       <c r="D15" t="n">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="E15" t="n">
-        <v>143</v>
+        <v>125</v>
       </c>
       <c r="F15" t="n">
         <v>1</v>
@@ -799,19 +799,19 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B16" t="n">
         <v>9</v>
       </c>
       <c r="C16" t="n">
-        <v>142</v>
+        <v>114</v>
       </c>
       <c r="D16" t="n">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="E16" t="n">
-        <v>144</v>
+        <v>126</v>
       </c>
       <c r="F16" t="n">
         <v>2</v>
@@ -822,42 +822,42 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B17" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C17" t="n">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="D17" t="n">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E17" t="n">
-        <v>143</v>
+        <v>125</v>
       </c>
       <c r="F17" t="n">
         <v>1</v>
       </c>
       <c r="G17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B18" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C18" t="n">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="D18" t="n">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="E18" t="n">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="F18" t="n">
         <v>1</v>
@@ -868,19 +868,19 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="B19" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C19" t="n">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="D19" t="n">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="E19" t="n">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="F19" t="n">
         <v>1</v>
@@ -891,22 +891,22 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>68</v>
+        <v>93</v>
       </c>
       <c r="B20" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C20" t="n">
-        <v>143</v>
+        <v>113</v>
       </c>
       <c r="D20" t="n">
-        <v>68</v>
+        <v>93</v>
       </c>
       <c r="E20" t="n">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="F20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G20" t="n">
         <v>1</v>
@@ -914,65 +914,65 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="B21" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21" t="n">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="D21" t="n">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="E21" t="n">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="F21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B22" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C22" t="n">
-        <v>142</v>
+        <v>113</v>
       </c>
       <c r="D22" t="n">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E22" t="n">
-        <v>144</v>
+        <v>123</v>
       </c>
       <c r="F22" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G22" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B23" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C23" t="n">
-        <v>125</v>
+        <v>142</v>
       </c>
       <c r="D23" t="n">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E23" t="n">
-        <v>128</v>
+        <v>144</v>
       </c>
       <c r="F23" t="n">
         <v>1</v>
@@ -983,42 +983,42 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B24" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C24" t="n">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="D24" t="n">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E24" t="n">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="F24" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="B25" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C25" t="n">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="D25" t="n">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="E25" t="n">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="F25" t="n">
         <v>1</v>
@@ -1029,134 +1029,134 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="B26" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C26" t="n">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="D26" t="n">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="E26" t="n">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="B27" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C27" t="n">
-        <v>115</v>
+        <v>135</v>
       </c>
       <c r="D27" t="n">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="E27" t="n">
-        <v>136</v>
+        <v>114</v>
       </c>
       <c r="F27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="B28" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C28" t="n">
-        <v>132</v>
+        <v>112</v>
       </c>
       <c r="D28" t="n">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="E28" t="n">
-        <v>122</v>
+        <v>143</v>
       </c>
       <c r="F28" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="B29" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C29" t="n">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="D29" t="n">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="E29" t="n">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="F29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="B30" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C30" t="n">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D30" t="n">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="E30" t="n">
-        <v>112</v>
+        <v>143</v>
       </c>
       <c r="F30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>71</v>
+        <v>95</v>
       </c>
       <c r="B31" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C31" t="n">
-        <v>122</v>
+        <v>143</v>
       </c>
       <c r="D31" t="n">
-        <v>71</v>
+        <v>95</v>
       </c>
       <c r="E31" t="n">
-        <v>124</v>
+        <v>142</v>
       </c>
       <c r="F31" t="n">
         <v>2</v>
@@ -1167,19 +1167,19 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B32" t="n">
         <v>12</v>
       </c>
       <c r="C32" t="n">
-        <v>122</v>
+        <v>139</v>
       </c>
       <c r="D32" t="n">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E32" t="n">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="F32" t="n">
         <v>2</v>
@@ -1190,19 +1190,19 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B33" t="n">
         <v>9</v>
       </c>
       <c r="C33" t="n">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D33" t="n">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="E33" t="n">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="F33" t="n">
         <v>2</v>
@@ -1213,25 +1213,25 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>66</v>
+        <v>86</v>
       </c>
       <c r="B34" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C34" t="n">
-        <v>112</v>
+        <v>137</v>
       </c>
       <c r="D34" t="n">
-        <v>66</v>
+        <v>86</v>
       </c>
       <c r="E34" t="n">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="F34" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G34" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -1267,178 +1267,178 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>96</v>
+        <v>72</v>
       </c>
       <c r="B2" t="n">
-        <v>14.32899020449196</v>
+        <v>13.59562313220223</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>93</v>
+        <v>69</v>
       </c>
       <c r="B3" t="n">
-        <v>19.68583258222809</v>
+        <v>28.12875016766805</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="B4" t="n">
-        <v>17.75132808275112</v>
+        <v>28.60939982143925</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="B5" t="n">
-        <v>26.01940368527294</v>
+        <v>11.90820393249937</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="B6" t="n">
-        <v>21.33439201491209</v>
+        <v>41.42524267474737</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="B7" t="n">
-        <v>33.19082558773255</v>
+        <v>12.52455532033676</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="B8" t="n">
-        <v>21.97132232948902</v>
+        <v>24.40800272585708</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>69</v>
+        <v>97</v>
       </c>
       <c r="B9" t="n">
-        <v>42.34829462496094</v>
+        <v>70.55600371562036</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B10" t="n">
-        <v>15.35298244508295</v>
+        <v>21.06850622316425</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B11" t="n">
-        <v>8.028427124746189</v>
+        <v>22.82561414421749</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B12" t="n">
-        <v>32.43938997881306</v>
+        <v>28.56185539447761</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="B13" t="n">
-        <v>52.36255264933469</v>
+        <v>12.93343312876074</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="B14" t="n">
-        <v>29.83128076912465</v>
+        <v>9.840986324787455</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B15" t="n">
-        <v>38.76491310653709</v>
+        <v>27.20117440766622</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="B16" t="n">
-        <v>40.02960426425883</v>
+        <v>47.40035792010114</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B17" t="n">
-        <v>51.22105266211431</v>
+        <v>71.64726925316609</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>70</v>
+        <v>96</v>
       </c>
       <c r="B18" t="n">
-        <v>66.27540872475335</v>
+        <v>14.32899020449196</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="B19" t="n">
-        <v>34.36263803313825</v>
+        <v>41.5357816187333</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="B20" t="n">
-        <v>47.15197231830629</v>
+        <v>17.2292851195561</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="B21" t="n">
-        <v>30.52934142788849</v>
+        <v>30.38419009165251</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="B22" t="n">
-        <v>94.63201551618116</v>
+        <v>8.598345637668169</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>98</v>
+        <v>67</v>
       </c>
       <c r="B23" t="n">
-        <v>24.37569485501956</v>
+        <v>17.5539688570515</v>
       </c>
     </row>
     <row r="24">
@@ -1446,87 +1446,87 @@
         <v>85</v>
       </c>
       <c r="B24" t="n">
-        <v>30.08088685084721</v>
+        <v>27.47897050407145</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="B25" t="n">
-        <v>28.84419488529145</v>
+        <v>78.84675461272258</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="B26" t="n">
-        <v>20.74320376686506</v>
+        <v>32.75189219918872</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="B27" t="n">
-        <v>77.72218718430287</v>
+        <v>36.78115902406435</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="B28" t="n">
-        <v>59.06482307307004</v>
+        <v>41.8385355949337</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="B29" t="n">
-        <v>29.90399587723788</v>
+        <v>92.3571331452541</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="B30" t="n">
-        <v>20.20091395355177</v>
+        <v>45.66722470412383</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="B31" t="n">
-        <v>27.20117440766623</v>
+        <v>92.73170906639017</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="B32" t="n">
-        <v>16.84911064067352</v>
+        <v>31.5058321137627</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="B33" t="n">
-        <v>23.55384043989286</v>
+        <v>74.87117729322281</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B34" t="n">
-        <v>35.32246365217839</v>
+        <v>83.73430762780237</v>
       </c>
     </row>
   </sheetData>
@@ -1540,7 +1540,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C48"/>
+  <dimension ref="A1:C45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1584,7 +1584,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="4">
@@ -1595,7 +1595,7 @@
         <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>125</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5">
@@ -1606,7 +1606,7 @@
         <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>128</v>
+        <v>141</v>
       </c>
     </row>
     <row r="6">
@@ -1617,7 +1617,7 @@
         <v>4</v>
       </c>
       <c r="C6" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="7">
@@ -1628,7 +1628,7 @@
         <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>112</v>
+        <v>133</v>
       </c>
     </row>
     <row r="8">
@@ -1639,7 +1639,7 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>143</v>
+        <v>125</v>
       </c>
     </row>
     <row r="9">
@@ -1650,7 +1650,7 @@
         <v>7</v>
       </c>
       <c r="C9" t="n">
-        <v>142</v>
+        <v>128</v>
       </c>
     </row>
     <row r="10">
@@ -1661,7 +1661,7 @@
         <v>8</v>
       </c>
       <c r="C10" t="n">
-        <v>144</v>
+        <v>131</v>
       </c>
     </row>
     <row r="11">
@@ -1672,7 +1672,7 @@
         <v>9</v>
       </c>
       <c r="C11" t="n">
-        <v>118</v>
+        <v>112</v>
       </c>
     </row>
     <row r="12">
@@ -1683,7 +1683,7 @@
         <v>10</v>
       </c>
       <c r="C12" t="n">
-        <v>130</v>
+        <v>143</v>
       </c>
     </row>
     <row r="13">
@@ -1694,7 +1694,7 @@
         <v>11</v>
       </c>
       <c r="C13" t="n">
-        <v>116</v>
+        <v>142</v>
       </c>
     </row>
     <row r="14">
@@ -1705,51 +1705,51 @@
         <v>12</v>
       </c>
       <c r="C14" t="n">
-        <v>111</v>
+        <v>144</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="C15" t="n">
-        <v>111</v>
+        <v>118</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B16" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="C16" t="n">
-        <v>114</v>
+        <v>130</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B17" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="C17" t="n">
-        <v>126</v>
+        <v>116</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B18" t="n">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="C18" t="n">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="19">
@@ -1757,10 +1757,10 @@
         <v>2</v>
       </c>
       <c r="B19" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>136</v>
+        <v>111</v>
       </c>
     </row>
     <row r="20">
@@ -1768,10 +1768,10 @@
         <v>2</v>
       </c>
       <c r="B20" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C20" t="n">
-        <v>127</v>
+        <v>114</v>
       </c>
     </row>
     <row r="21">
@@ -1779,10 +1779,10 @@
         <v>2</v>
       </c>
       <c r="B21" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C21" t="n">
-        <v>122</v>
+        <v>126</v>
       </c>
     </row>
     <row r="22">
@@ -1790,10 +1790,10 @@
         <v>2</v>
       </c>
       <c r="B22" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C22" t="n">
-        <v>124</v>
+        <v>115</v>
       </c>
     </row>
     <row r="23">
@@ -1801,10 +1801,10 @@
         <v>2</v>
       </c>
       <c r="B23" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C23" t="n">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="24">
@@ -1812,10 +1812,10 @@
         <v>2</v>
       </c>
       <c r="B24" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C24" t="n">
-        <v>137</v>
+        <v>122</v>
       </c>
     </row>
     <row r="25">
@@ -1823,10 +1823,10 @@
         <v>2</v>
       </c>
       <c r="B25" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C25" t="n">
-        <v>139</v>
+        <v>117</v>
       </c>
     </row>
     <row r="26">
@@ -1834,10 +1834,10 @@
         <v>2</v>
       </c>
       <c r="B26" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C26" t="n">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="27">
@@ -1845,10 +1845,10 @@
         <v>2</v>
       </c>
       <c r="B27" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C27" t="n">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="28">
@@ -1856,10 +1856,10 @@
         <v>2</v>
       </c>
       <c r="B28" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C28" t="n">
-        <v>113</v>
+        <v>140</v>
       </c>
     </row>
     <row r="29">
@@ -1867,10 +1867,10 @@
         <v>2</v>
       </c>
       <c r="B29" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C29" t="n">
-        <v>132</v>
+        <v>137</v>
       </c>
     </row>
     <row r="30">
@@ -1878,10 +1878,10 @@
         <v>2</v>
       </c>
       <c r="B30" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C30" t="n">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="31">
@@ -1889,10 +1889,10 @@
         <v>2</v>
       </c>
       <c r="B31" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C31" t="n">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="32">
@@ -1900,10 +1900,10 @@
         <v>2</v>
       </c>
       <c r="B32" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C32" t="n">
-        <v>112</v>
+        <v>120</v>
       </c>
     </row>
     <row r="33">
@@ -1911,10 +1911,10 @@
         <v>2</v>
       </c>
       <c r="B33" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C33" t="n">
-        <v>131</v>
+        <v>113</v>
       </c>
     </row>
     <row r="34">
@@ -1922,10 +1922,10 @@
         <v>2</v>
       </c>
       <c r="B34" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C34" t="n">
-        <v>128</v>
+        <v>132</v>
       </c>
     </row>
     <row r="35">
@@ -1933,10 +1933,10 @@
         <v>2</v>
       </c>
       <c r="B35" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C35" t="n">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="36">
@@ -1944,10 +1944,10 @@
         <v>2</v>
       </c>
       <c r="B36" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C36" t="n">
-        <v>125</v>
+        <v>142</v>
       </c>
     </row>
     <row r="37">
@@ -1955,65 +1955,65 @@
         <v>2</v>
       </c>
       <c r="B37" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C37" t="n">
-        <v>133</v>
+        <v>111</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B38" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>129</v>
+        <v>111</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B39" t="n">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="C39" t="n">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B40" t="n">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="C40" t="n">
-        <v>130</v>
+        <v>135</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B41" t="n">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="C41" t="n">
-        <v>116</v>
+        <v>139</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B42" t="n">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="C42" t="n">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="43">
@@ -2021,10 +2021,10 @@
         <v>3</v>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C43" t="n">
-        <v>111</v>
+        <v>123</v>
       </c>
     </row>
     <row r="44">
@@ -2032,10 +2032,10 @@
         <v>3</v>
       </c>
       <c r="B44" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C44" t="n">
-        <v>119</v>
+        <v>132</v>
       </c>
     </row>
     <row r="45">
@@ -2043,42 +2043,9 @@
         <v>3</v>
       </c>
       <c r="B45" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C45" t="n">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="n">
-        <v>3</v>
-      </c>
-      <c r="B46" t="n">
-        <v>3</v>
-      </c>
-      <c r="C46" t="n">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="n">
-        <v>3</v>
-      </c>
-      <c r="B47" t="n">
-        <v>4</v>
-      </c>
-      <c r="C47" t="n">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="n">
-        <v>3</v>
-      </c>
-      <c r="B48" t="n">
-        <v>5</v>
-      </c>
-      <c r="C48" t="n">
         <v>111</v>
       </c>
     </row>
@@ -2148,10 +2115,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2399.733525032666</v>
+        <v>5455.118763531706</v>
       </c>
       <c r="B2" t="n">
-        <v>2077.754321832967</v>
+        <v>2226.555092462501</v>
       </c>
     </row>
   </sheetData>
@@ -2282,7 +2249,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B2" t="n">
         <v>119</v>
@@ -2291,28 +2258,28 @@
         <v>72</v>
       </c>
       <c r="D2" t="n">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="E2" t="n">
         <v>3</v>
       </c>
       <c r="F2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H2" t="n">
         <v>3</v>
       </c>
       <c r="I2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J2" t="n">
         <v>119</v>
       </c>
       <c r="K2" t="n">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="L2" t="n">
         <v>72</v>
@@ -2321,22 +2288,22 @@
         <v>1.134700655416562</v>
       </c>
       <c r="N2" t="n">
-        <v>1.539760943271935</v>
+        <v>1.515134631311068</v>
       </c>
       <c r="O2" t="n">
-        <v>2837.501279168406</v>
+        <v>2837.795045320831</v>
       </c>
       <c r="P2" t="n">
-        <v>28.84419488529145</v>
+        <v>13.59562313220223</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.4008936211887071</v>
+        <v>0.3762673092278399</v>
       </c>
       <c r="R2" t="inlineStr"/>
       <c r="S2" t="inlineStr"/>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[119, 40, 72, 60, 139]</t>
+          <t>[119, 40, 72, 56, 135]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -2345,139 +2312,139 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3" t="n">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C3" t="n">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="D3" t="n">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="E3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J3" t="n">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="K3" t="n">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="L3" t="n">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="M3" t="n">
-        <v>1.151367322083228</v>
+        <v>2.126168977639566</v>
       </c>
       <c r="N3" t="n">
-        <v>1.911902653828808</v>
+        <v>2.910300926741456</v>
       </c>
       <c r="O3" t="n">
-        <v>2833.260833579456</v>
+        <v>2832.979350607015</v>
       </c>
       <c r="P3" t="n">
-        <v>38.76491310653709</v>
+        <v>28.12875016766805</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.4008936211887071</v>
+        <v>0.7799652824352236</v>
       </c>
       <c r="R3" t="inlineStr"/>
       <c r="S3" t="inlineStr"/>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[119, 40, 72, 60, 139]</t>
+          <t>[114, 35, 92, 69, 51, 130]</t>
         </is>
       </c>
       <c r="U3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B4" t="n">
-        <v>114</v>
+        <v>135</v>
       </c>
       <c r="C4" t="n">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="D4" t="n">
-        <v>126</v>
+        <v>141</v>
       </c>
       <c r="E4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G4" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J4" t="n">
-        <v>114</v>
+        <v>135</v>
       </c>
       <c r="K4" t="n">
-        <v>126</v>
+        <v>141</v>
       </c>
       <c r="L4" t="n">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="M4" t="n">
-        <v>2.126168977639566</v>
+        <v>2.134502310972899</v>
       </c>
       <c r="N4" t="n">
-        <v>2.923652306012878</v>
+        <v>4.733529613104987</v>
       </c>
       <c r="O4" t="n">
-        <v>2832.820082612508</v>
+        <v>2811.329546699707</v>
       </c>
       <c r="P4" t="n">
-        <v>32.43938997881306</v>
+        <v>93.46498287675519</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.1430555555555555</v>
+        <v>1.58088303758155</v>
       </c>
       <c r="R4" t="inlineStr"/>
       <c r="S4" t="inlineStr"/>
       <c r="T4" t="inlineStr">
         <is>
-          <t>[114, 35, 47, 126]</t>
+          <t>[135, 56, 89, 12, 5, 108, 7, 3, 62, 141]</t>
         </is>
       </c>
       <c r="U4" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B5" t="n">
         <v>114</v>
       </c>
       <c r="C5" t="n">
-        <v>69</v>
+        <v>92</v>
       </c>
       <c r="D5" t="n">
         <v>126</v>
@@ -2489,7 +2456,7 @@
         <v>2</v>
       </c>
       <c r="G5" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H5" t="n">
         <v>2</v>
@@ -2504,19 +2471,19 @@
         <v>126</v>
       </c>
       <c r="L5" t="n">
-        <v>69</v>
+        <v>92</v>
       </c>
       <c r="M5" t="n">
         <v>2.142835644306232</v>
       </c>
       <c r="N5" t="n">
-        <v>3.291683157142698</v>
+        <v>2.940318972679545</v>
       </c>
       <c r="O5" t="n">
-        <v>2828.628675278207</v>
+        <v>2832.820082612508</v>
       </c>
       <c r="P5" t="n">
-        <v>42.34829462496094</v>
+        <v>28.60939982143925</v>
       </c>
       <c r="Q5" t="n">
         <v>0.1430555555555555</v>
@@ -2534,79 +2501,79 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B6" t="n">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C6" t="n">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D6" t="n">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J6" t="n">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="K6" t="n">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="L6" t="n">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="M6" t="n">
-        <v>2.605967695771751</v>
+        <v>2.151168977639565</v>
       </c>
       <c r="N6" t="n">
-        <v>4.031552491941593</v>
+        <v>3.307718467048824</v>
       </c>
       <c r="O6" t="n">
-        <v>2825.327488844507</v>
+        <v>2828.536798750879</v>
       </c>
       <c r="P6" t="n">
-        <v>51.22105266211431</v>
+        <v>41.5357816187333</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.7215056845365255</v>
+        <v>1.053590220888743</v>
       </c>
       <c r="R6" t="inlineStr"/>
       <c r="S6" t="inlineStr"/>
       <c r="T6" t="inlineStr">
         <is>
-          <t>[139, 60, 72, 106, 34, 113]</t>
+          <t>[135, 56, 89, 12, 5, 108, 35, 114]</t>
         </is>
       </c>
       <c r="U6" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B7" t="n">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C7" t="n">
         <v>67</v>
       </c>
       <c r="D7" t="n">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="E7" t="n">
         <v>1</v>
@@ -2615,7 +2582,7 @@
         <v>1</v>
       </c>
       <c r="G7" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="H7" t="n">
         <v>1</v>
@@ -2624,169 +2591,169 @@
         <v>1</v>
       </c>
       <c r="J7" t="n">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="K7" t="n">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="L7" t="n">
         <v>67</v>
       </c>
       <c r="M7" t="n">
-        <v>3.058047931815777</v>
+        <v>2.167835644306232</v>
       </c>
       <c r="N7" t="n">
-        <v>3.889472397624795</v>
+        <v>5.135061224692171</v>
       </c>
       <c r="O7" t="n">
-        <v>2832.415200331748</v>
+        <v>2806.93732622821</v>
       </c>
       <c r="P7" t="n">
-        <v>29.83128076912465</v>
+        <v>106.7201208938938</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.2602651238136913</v>
+        <v>1.053590220888743</v>
       </c>
       <c r="R7" t="inlineStr"/>
       <c r="S7" t="inlineStr"/>
       <c r="T7" t="inlineStr">
         <is>
-          <t>[133, 54, 46, 125]</t>
+          <t>[135, 56, 89, 12, 5, 108, 35, 114]</t>
         </is>
       </c>
       <c r="U7" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B8" t="n">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="C8" t="n">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D8" t="n">
-        <v>115</v>
+        <v>139</v>
       </c>
       <c r="E8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G8" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J8" t="n">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="K8" t="n">
-        <v>115</v>
+        <v>139</v>
       </c>
       <c r="L8" t="n">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M8" t="n">
-        <v>3.316683157142698</v>
+        <v>2.455207803123758</v>
       </c>
       <c r="N8" t="n">
-        <v>5.693446939259386</v>
+        <v>2.788769023470963</v>
       </c>
       <c r="O8" t="n">
-        <v>2813.980918094784</v>
+        <v>2838.354188284363</v>
       </c>
       <c r="P8" t="n">
-        <v>35.32246365217839</v>
+        <v>11.90820393249937</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.4143823915551827</v>
+        <v>0.05972222222222222</v>
       </c>
       <c r="R8" t="inlineStr"/>
       <c r="S8" t="inlineStr"/>
       <c r="T8" t="inlineStr">
         <is>
-          <t>[126, 47, 6, 36, 115]</t>
+          <t>[135, 56, 60, 139]</t>
         </is>
       </c>
       <c r="U8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B9" t="n">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C9" t="n">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="D9" t="n">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G9" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="H9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J9" t="n">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="K9" t="n">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="L9" t="n">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="M9" t="n">
-        <v>4.550264121482463</v>
+        <v>4.113827731112016</v>
       </c>
       <c r="N9" t="n">
-        <v>5.50755962240297</v>
+        <v>5.267306694299442</v>
       </c>
       <c r="O9" t="n">
-        <v>2830.913690493606</v>
+        <v>2828.573426918164</v>
       </c>
       <c r="P9" t="n">
-        <v>34.36263803313825</v>
+        <v>41.42524267474737</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.9348624706645021</v>
+        <v>0.128392665416655</v>
       </c>
       <c r="R9" t="inlineStr"/>
       <c r="S9" t="inlineStr"/>
       <c r="T9" t="inlineStr">
         <is>
-          <t>[113, 34, 1, 79, 18, 53, 132]</t>
+          <t>[115, 36, 57, 136]</t>
         </is>
       </c>
       <c r="U9" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B10" t="n">
         <v>113</v>
@@ -2795,7 +2762,7 @@
         <v>75</v>
       </c>
       <c r="D10" t="n">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="E10" t="n">
         <v>3</v>
@@ -2804,7 +2771,7 @@
         <v>3</v>
       </c>
       <c r="G10" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H10" t="n">
         <v>3</v>
@@ -2816,98 +2783,98 @@
         <v>113</v>
       </c>
       <c r="K10" t="n">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="L10" t="n">
         <v>75</v>
       </c>
       <c r="M10" t="n">
-        <v>4.566930788149129</v>
+        <v>4.724732115848341</v>
       </c>
       <c r="N10" t="n">
-        <v>5.930094015211852</v>
+        <v>6.717711817325178</v>
       </c>
       <c r="O10" t="n">
-        <v>2826.07211289597</v>
+        <v>2818.559060892233</v>
       </c>
       <c r="P10" t="n">
-        <v>94.63201551618116</v>
+        <v>71.64726925316609</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.9348624706645021</v>
+        <v>0.4208333333333333</v>
       </c>
       <c r="R10" t="inlineStr"/>
       <c r="S10" t="inlineStr"/>
       <c r="T10" t="inlineStr">
         <is>
-          <t>[113, 34, 1, 79, 18, 53, 132]</t>
+          <t>[113, 34, 44, 123]</t>
         </is>
       </c>
       <c r="U10" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B11" t="n">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="C11" t="n">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="D11" t="n">
-        <v>125</v>
+        <v>139</v>
       </c>
       <c r="E11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G11" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J11" t="n">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="K11" t="n">
-        <v>125</v>
+        <v>139</v>
       </c>
       <c r="L11" t="n">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="M11" t="n">
-        <v>5.718446939259387</v>
+        <v>6.742711817325178</v>
       </c>
       <c r="N11" t="n">
-        <v>7.759816390832323</v>
+        <v>7.867417283911299</v>
       </c>
       <c r="O11" t="n">
-        <v>2817.981821769903</v>
+        <v>2828.916664647053</v>
       </c>
       <c r="P11" t="n">
-        <v>20.20091395355177</v>
+        <v>40.38939679710035</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.824276725098516</v>
+        <v>1.120538799919454</v>
       </c>
       <c r="R11" t="inlineStr"/>
       <c r="S11" t="inlineStr"/>
       <c r="T11" t="inlineStr">
         <is>
-          <t>[115, 36, 109, 3, 62, 15, 70, 50, 54, 46, 125]</t>
+          <t>[123, 44, 79, 1, 22, 41, 56, 60, 139]</t>
         </is>
       </c>
       <c r="U11" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12">
@@ -2915,13 +2882,13 @@
         <v>9</v>
       </c>
       <c r="B12" t="n">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="C12" t="n">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="D12" t="n">
-        <v>136</v>
+        <v>117</v>
       </c>
       <c r="E12" t="n">
         <v>2</v>
@@ -2939,160 +2906,160 @@
         <v>2</v>
       </c>
       <c r="J12" t="n">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="K12" t="n">
-        <v>136</v>
+        <v>117</v>
       </c>
       <c r="L12" t="n">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="M12" t="n">
-        <v>5.735113605926053</v>
+        <v>7.768648136215879</v>
       </c>
       <c r="N12" t="n">
-        <v>6.88859256911348</v>
+        <v>8.119330228447456</v>
       </c>
       <c r="O12" t="n">
-        <v>2828.573426918164</v>
+        <v>2838.149954184365</v>
       </c>
       <c r="P12" t="n">
-        <v>59.06482307307004</v>
+        <v>12.52455532033676</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.128392665416655</v>
+        <v>0.2830424909909491</v>
       </c>
       <c r="R12" t="inlineStr"/>
       <c r="S12" t="inlineStr"/>
       <c r="T12" t="inlineStr">
         <is>
-          <t>[115, 36, 57, 136]</t>
+          <t>[122, 43, 45, 38, 117]</t>
         </is>
       </c>
       <c r="U12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B13" t="n">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="C13" t="n">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="D13" t="n">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="E13" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G13" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H13" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J13" t="n">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="K13" t="n">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="L13" t="n">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="M13" t="n">
-        <v>5.955094015211852</v>
+        <v>8.118394558025505</v>
       </c>
       <c r="N13" t="n">
-        <v>8.019275630759463</v>
+        <v>8.799172411521536</v>
       </c>
       <c r="O13" t="n">
-        <v>2817.70969650608</v>
+        <v>2834.212256900564</v>
       </c>
       <c r="P13" t="n">
-        <v>40.02960426425883</v>
+        <v>24.40800272585708</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.884332856649368</v>
+        <v>0.6234189293158565</v>
       </c>
       <c r="R13" t="inlineStr"/>
       <c r="S13" t="inlineStr"/>
       <c r="T13" t="inlineStr">
         <is>
-          <t>[132, 53, 18, 79, 1, 22, 41, 56, 89, 58, 45, 43, 122]</t>
+          <t>[141, 62, 15, 70, 50, 129]</t>
         </is>
       </c>
       <c r="U13" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B14" t="n">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="C14" t="n">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="D14" t="n">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G14" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J14" t="n">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="K14" t="n">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="L14" t="n">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="M14" t="n">
-        <v>6.91359256911348</v>
+        <v>8.135061224692173</v>
       </c>
       <c r="N14" t="n">
-        <v>8.879097646622418</v>
+        <v>10.09772799457052</v>
       </c>
       <c r="O14" t="n">
-        <v>2818.886804428706</v>
+        <v>2818.920662471005</v>
       </c>
       <c r="P14" t="n">
-        <v>52.36255264933469</v>
+        <v>70.55600371562036</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.7087971653570132</v>
+        <v>0.6234189293158565</v>
       </c>
       <c r="R14" t="inlineStr"/>
       <c r="S14" t="inlineStr"/>
       <c r="T14" t="inlineStr">
         <is>
-          <t>[136, 57, 6, 47, 48, 127]</t>
+          <t>[141, 62, 15, 70, 50, 129]</t>
         </is>
       </c>
       <c r="U14" t="n">
@@ -3101,79 +3068,79 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B15" t="n">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="C15" t="n">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="D15" t="n">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="E15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G15" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J15" t="n">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="K15" t="n">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="L15" t="n">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="M15" t="n">
-        <v>7.784816390832323</v>
+        <v>8.514758391308677</v>
       </c>
       <c r="N15" t="n">
-        <v>8.382558460360082</v>
+        <v>9.534935360465413</v>
       </c>
       <c r="O15" t="n">
-        <v>2835.202786981101</v>
+        <v>2830.163580326403</v>
       </c>
       <c r="P15" t="n">
-        <v>24.37569485501956</v>
+        <v>36.62637088964253</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.3578731424655762</v>
+        <v>0.5666087402307349</v>
       </c>
       <c r="R15" t="inlineStr"/>
       <c r="S15" t="inlineStr"/>
       <c r="T15" t="inlineStr">
         <is>
-          <t>[125, 46, 74, 94, 49, 128]</t>
+          <t>[117, 38, 23, 55, 134]</t>
         </is>
       </c>
       <c r="U15" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B16" t="n">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="C16" t="n">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="D16" t="n">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="E16" t="n">
         <v>1</v>
@@ -3182,7 +3149,7 @@
         <v>1</v>
       </c>
       <c r="G16" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H16" t="n">
         <v>1</v>
@@ -3191,38 +3158,38 @@
         <v>1</v>
       </c>
       <c r="J16" t="n">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="K16" t="n">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="L16" t="n">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="M16" t="n">
-        <v>7.80148305749899</v>
+        <v>10.12272799457052</v>
       </c>
       <c r="N16" t="n">
-        <v>8.574907219258325</v>
+        <v>10.71074205632508</v>
       </c>
       <c r="O16" t="n">
-        <v>2833.107083313951</v>
+        <v>2835.318831942232</v>
       </c>
       <c r="P16" t="n">
-        <v>23.55384043989286</v>
+        <v>21.06850622316425</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.3578731424655762</v>
+        <v>0.2281182707860708</v>
       </c>
       <c r="R16" t="inlineStr"/>
       <c r="S16" t="inlineStr"/>
       <c r="T16" t="inlineStr">
         <is>
-          <t>[125, 46, 74, 94, 49, 128]</t>
+          <t>[129, 50, 54, 133]</t>
         </is>
       </c>
       <c r="U16" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17">
@@ -3230,13 +3197,13 @@
         <v>8</v>
       </c>
       <c r="B17" t="n">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="C17" t="n">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="D17" t="n">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="E17" t="n">
         <v>1</v>
@@ -3254,34 +3221,34 @@
         <v>1</v>
       </c>
       <c r="J17" t="n">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="K17" t="n">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="L17" t="n">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="M17" t="n">
-        <v>8.700011194922846</v>
+        <v>11.0372871027337</v>
       </c>
       <c r="N17" t="n">
-        <v>9.131184976786558</v>
+        <v>11.67410971785085</v>
       </c>
       <c r="O17" t="n">
-        <v>2837.189772489153</v>
+        <v>2834.736596934833</v>
       </c>
       <c r="P17" t="n">
-        <v>30.52934142788849</v>
+        <v>22.82561414421749</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.2415001040365981</v>
+        <v>0.2602651238136913</v>
       </c>
       <c r="R17" t="inlineStr"/>
       <c r="S17" t="inlineStr"/>
       <c r="T17" t="inlineStr">
         <is>
-          <t>[128, 49, 52, 131]</t>
+          <t>[133, 54, 46, 125]</t>
         </is>
       </c>
       <c r="U17" t="n">
@@ -3290,16 +3257,16 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B18" t="n">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="C18" t="n">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="D18" t="n">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="E18" t="n">
         <v>1</v>
@@ -3308,7 +3275,7 @@
         <v>1</v>
       </c>
       <c r="G18" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="H18" t="n">
         <v>1</v>
@@ -3317,34 +3284,34 @@
         <v>1</v>
       </c>
       <c r="J18" t="n">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="K18" t="n">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="L18" t="n">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="M18" t="n">
-        <v>8.716677861589513</v>
+        <v>11.05395376940037</v>
       </c>
       <c r="N18" t="n">
-        <v>9.583474626042721</v>
+        <v>11.85011641924697</v>
       </c>
       <c r="O18" t="n">
-        <v>2831.993245794194</v>
+        <v>2832.83583692643</v>
       </c>
       <c r="P18" t="n">
-        <v>33.19082558773255</v>
+        <v>28.56185539447761</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.2415001040365981</v>
+        <v>0.2602651238136913</v>
       </c>
       <c r="R18" t="inlineStr"/>
       <c r="S18" t="inlineStr"/>
       <c r="T18" t="inlineStr">
         <is>
-          <t>[128, 49, 52, 131]</t>
+          <t>[133, 54, 46, 125]</t>
         </is>
       </c>
       <c r="U18" t="n">
@@ -3353,61 +3320,61 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B19" t="n">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="C19" t="n">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="D19" t="n">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="E19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G19" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J19" t="n">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="K19" t="n">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="L19" t="n">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="M19" t="n">
-        <v>8.733344528256181</v>
+        <v>11.83921884426139</v>
       </c>
       <c r="N19" t="n">
-        <v>10.04590502344132</v>
+        <v>13.1555033134485</v>
       </c>
       <c r="O19" t="n">
-        <v>2826.67575057706</v>
+        <v>2826.631327461003</v>
       </c>
       <c r="P19" t="n">
-        <v>77.72218718430287</v>
+        <v>47.28624089073593</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.2415001040365981</v>
+        <v>0.1043208687628886</v>
       </c>
       <c r="R19" t="inlineStr"/>
       <c r="S19" t="inlineStr"/>
       <c r="T19" t="inlineStr">
         <is>
-          <t>[128, 49, 52, 131]</t>
+          <t>[140, 61, 58, 137]</t>
         </is>
       </c>
       <c r="U19" t="n">
@@ -3416,128 +3383,128 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B20" t="n">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C20" t="n">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D20" t="n">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G20" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J20" t="n">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="K20" t="n">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="L20" t="n">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="M20" t="n">
-        <v>9.760323421452272</v>
+        <v>12.05924154846299</v>
       </c>
       <c r="N20" t="n">
-        <v>10.18957293381569</v>
+        <v>12.42128135759523</v>
       </c>
       <c r="O20" t="n">
-        <v>2837.212727012276</v>
+        <v>2838.014468497367</v>
       </c>
       <c r="P20" t="n">
-        <v>15.35298244508295</v>
+        <v>12.93343312876074</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.2044750708591105</v>
+        <v>0.3578731424655762</v>
       </c>
       <c r="R20" t="inlineStr"/>
       <c r="S20" t="inlineStr"/>
       <c r="T20" t="inlineStr">
         <is>
-          <t>[122, 43, 45, 124]</t>
+          <t>[125, 46, 74, 94, 49, 128]</t>
         </is>
       </c>
       <c r="U20" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B21" t="n">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="C21" t="n">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="D21" t="n">
-        <v>124</v>
+        <v>144</v>
       </c>
       <c r="E21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G21" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J21" t="n">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="K21" t="n">
-        <v>124</v>
+        <v>144</v>
       </c>
       <c r="L21" t="n">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="M21" t="n">
-        <v>9.776990088118939</v>
+        <v>13.06610301922017</v>
       </c>
       <c r="N21" t="n">
-        <v>10.61534805619803</v>
+        <v>13.34224152824205</v>
       </c>
       <c r="O21" t="n">
-        <v>2832.332490899335</v>
+        <v>2839.039181189296</v>
       </c>
       <c r="P21" t="n">
-        <v>30.08088685084721</v>
+        <v>9.840986324787455</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.2044750708591105</v>
+        <v>0.2719718423552071</v>
       </c>
       <c r="R21" t="inlineStr"/>
       <c r="S21" t="inlineStr"/>
       <c r="T21" t="inlineStr">
         <is>
-          <t>[122, 43, 45, 124]</t>
+          <t>[128, 49, 77, 98, 95, 65, 144]</t>
         </is>
       </c>
       <c r="U21" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22">
@@ -3545,13 +3512,13 @@
         <v>8</v>
       </c>
       <c r="B22" t="n">
+        <v>128</v>
+      </c>
+      <c r="C22" t="n">
+        <v>78</v>
+      </c>
+      <c r="D22" t="n">
         <v>131</v>
-      </c>
-      <c r="C22" t="n">
-        <v>87</v>
-      </c>
-      <c r="D22" t="n">
-        <v>112</v>
       </c>
       <c r="E22" t="n">
         <v>1</v>
@@ -3569,34 +3536,34 @@
         <v>1</v>
       </c>
       <c r="J22" t="n">
+        <v>128</v>
+      </c>
+      <c r="K22" t="n">
         <v>131</v>
       </c>
-      <c r="K22" t="n">
-        <v>112</v>
-      </c>
       <c r="L22" t="n">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="M22" t="n">
-        <v>10.07090502344132</v>
+        <v>13.08276968588684</v>
       </c>
       <c r="N22" t="n">
-        <v>11.99079613247367</v>
+        <v>13.94956645034005</v>
       </c>
       <c r="O22" t="n">
-        <v>2819.430931378673</v>
+        <v>2831.993245794194</v>
       </c>
       <c r="P22" t="n">
-        <v>47.15197231830629</v>
+        <v>31.10468352031543</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.2994484947981847</v>
+        <v>0.2415001040365981</v>
       </c>
       <c r="R22" t="inlineStr"/>
       <c r="S22" t="inlineStr"/>
       <c r="T22" t="inlineStr">
         <is>
-          <t>[131, 52, 33, 112]</t>
+          <t>[128, 49, 52, 131]</t>
         </is>
       </c>
       <c r="U22" t="n">
@@ -3605,13 +3572,13 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B23" t="n">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C23" t="n">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D23" t="n">
         <v>112</v>
@@ -3623,7 +3590,7 @@
         <v>1</v>
       </c>
       <c r="G23" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H23" t="n">
         <v>1</v>
@@ -3632,38 +3599,38 @@
         <v>1</v>
       </c>
       <c r="J23" t="n">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="K23" t="n">
         <v>112</v>
       </c>
       <c r="L23" t="n">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="M23" t="n">
-        <v>10.08757169010799</v>
+        <v>13.09943635255351</v>
       </c>
       <c r="N23" t="n">
-        <v>10.82047919726614</v>
+        <v>14.12391299211085</v>
       </c>
       <c r="O23" t="n">
-        <v>2833.590404639134</v>
+        <v>2830.112289754258</v>
       </c>
       <c r="P23" t="n">
-        <v>29.90399587723788</v>
+        <v>36.78115902406435</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.2994484947981847</v>
+        <v>0.4914074031215551</v>
       </c>
       <c r="R23" t="inlineStr"/>
       <c r="S23" t="inlineStr"/>
       <c r="T23" t="inlineStr">
         <is>
-          <t>[131, 52, 33, 112]</t>
+          <t>[128, 49, 80, 33, 112]</t>
         </is>
       </c>
       <c r="U23" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24">
@@ -3674,7 +3641,7 @@
         <v>137</v>
       </c>
       <c r="C24" t="n">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D24" t="n">
         <v>139</v>
@@ -3701,19 +3668,19 @@
         <v>139</v>
       </c>
       <c r="L24" t="n">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="M24" t="n">
-        <v>11.69992194202699</v>
+        <v>13.1805033134485</v>
       </c>
       <c r="N24" t="n">
-        <v>11.92571158438105</v>
+        <v>16.11043289848818</v>
       </c>
       <c r="O24" t="n">
-        <v>2839.639790523874</v>
+        <v>2807.382228456003</v>
       </c>
       <c r="P24" t="n">
-        <v>8.028427124746189</v>
+        <v>105.3774650614287</v>
       </c>
       <c r="Q24" t="n">
         <v>0.2216229756873941</v>
@@ -3731,17 +3698,17 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B25" t="n">
+        <v>131</v>
+      </c>
+      <c r="C25" t="n">
+        <v>81</v>
+      </c>
+      <c r="D25" t="n">
         <v>112</v>
       </c>
-      <c r="C25" t="n">
-        <v>82</v>
-      </c>
-      <c r="D25" t="n">
-        <v>143</v>
-      </c>
       <c r="E25" t="n">
         <v>1</v>
       </c>
@@ -3749,7 +3716,7 @@
         <v>1</v>
       </c>
       <c r="G25" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H25" t="n">
         <v>1</v>
@@ -3758,38 +3725,38 @@
         <v>1</v>
       </c>
       <c r="J25" t="n">
+        <v>131</v>
+      </c>
+      <c r="K25" t="n">
         <v>112</v>
       </c>
-      <c r="K25" t="n">
-        <v>143</v>
-      </c>
       <c r="L25" t="n">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="M25" t="n">
-        <v>12.01579613247367</v>
+        <v>14.05383672708526</v>
       </c>
       <c r="N25" t="n">
-        <v>12.62888841940392</v>
+        <v>14.67172156907746</v>
       </c>
       <c r="O25" t="n">
-        <v>2835.019674937674</v>
+        <v>2834.96250476688</v>
       </c>
       <c r="P25" t="n">
-        <v>21.97132232948902</v>
+        <v>22.14385431171941</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.4560135469184832</v>
+        <v>0.2994484947981847</v>
       </c>
       <c r="R25" t="inlineStr"/>
       <c r="S25" t="inlineStr"/>
       <c r="T25" t="inlineStr">
         <is>
-          <t>[112, 33, 80, 64, 143]</t>
+          <t>[131, 52, 33, 112]</t>
         </is>
       </c>
       <c r="U25" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26">
@@ -3800,7 +3767,7 @@
         <v>112</v>
       </c>
       <c r="C26" t="n">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="D26" t="n">
         <v>143</v>
@@ -3827,19 +3794,19 @@
         <v>143</v>
       </c>
       <c r="L26" t="n">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="M26" t="n">
-        <v>12.03246279914034</v>
+        <v>15.25018464169205</v>
       </c>
       <c r="N26" t="n">
-        <v>12.80363611817567</v>
+        <v>15.7103648552772</v>
       </c>
       <c r="O26" t="n">
-        <v>2833.133933514167</v>
+        <v>2836.843756087837</v>
       </c>
       <c r="P26" t="n">
-        <v>20.74320376686506</v>
+        <v>16.4664876890654</v>
       </c>
       <c r="Q26" t="n">
         <v>0.4560135469184832</v>
@@ -3857,143 +3824,143 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B27" t="n">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C27" t="n">
-        <v>68</v>
+        <v>87</v>
       </c>
       <c r="D27" t="n">
-        <v>142</v>
+        <v>113</v>
       </c>
       <c r="E27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G27" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J27" t="n">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="K27" t="n">
-        <v>142</v>
+        <v>113</v>
       </c>
       <c r="L27" t="n">
-        <v>68</v>
+        <v>87</v>
       </c>
       <c r="M27" t="n">
-        <v>14.47881149031675</v>
+        <v>16.13543289848818</v>
       </c>
       <c r="N27" t="n">
-        <v>15.03969347164433</v>
+        <v>18.59119568170608</v>
       </c>
       <c r="O27" t="n">
-        <v>2835.642489292426</v>
+        <v>2813.038542612991</v>
       </c>
       <c r="P27" t="n">
-        <v>16.84911064067352</v>
+        <v>88.30746019584441</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.2053511301977579</v>
+        <v>0.7215056845365255</v>
       </c>
       <c r="R27" t="inlineStr"/>
       <c r="S27" t="inlineStr"/>
       <c r="T27" t="inlineStr">
         <is>
-          <t>[143, 64, 97, 63, 142]</t>
+          <t>[139, 60, 72, 106, 34, 113]</t>
         </is>
       </c>
       <c r="U27" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B28" t="n">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="C28" t="n">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="D28" t="n">
-        <v>143</v>
+        <v>120</v>
       </c>
       <c r="E28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F28" t="n">
         <v>2</v>
       </c>
       <c r="G28" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I28" t="n">
         <v>2</v>
       </c>
       <c r="J28" t="n">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="K28" t="n">
-        <v>143</v>
+        <v>120</v>
       </c>
       <c r="L28" t="n">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="M28" t="n">
-        <v>15.34129855023334</v>
+        <v>16.4687662318215</v>
       </c>
       <c r="N28" t="n">
-        <v>15.55081634709777</v>
+        <v>18.51482446968406</v>
       </c>
       <c r="O28" t="n">
-        <v>2839.833896626726</v>
+        <v>2817.925889452061</v>
       </c>
       <c r="P28" t="n">
-        <v>26.01940368527294</v>
+        <v>73.55809656305217</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.2053511301977579</v>
+        <v>0.2281182707860708</v>
       </c>
       <c r="R28" t="inlineStr"/>
       <c r="S28" t="inlineStr"/>
       <c r="T28" t="inlineStr">
         <is>
-          <t>[142, 63, 97, 64, 143]</t>
+          <t>[135, 56, 41, 120]</t>
         </is>
       </c>
       <c r="U28" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B29" t="n">
+        <v>143</v>
+      </c>
+      <c r="C29" t="n">
+        <v>73</v>
+      </c>
+      <c r="D29" t="n">
         <v>142</v>
       </c>
-      <c r="C29" t="n">
-        <v>77</v>
-      </c>
-      <c r="D29" t="n">
-        <v>144</v>
-      </c>
       <c r="E29" t="n">
         <v>1</v>
       </c>
@@ -4001,7 +3968,7 @@
         <v>1</v>
       </c>
       <c r="G29" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H29" t="n">
         <v>1</v>
@@ -4010,49 +3977,49 @@
         <v>1</v>
       </c>
       <c r="J29" t="n">
+        <v>143</v>
+      </c>
+      <c r="K29" t="n">
         <v>142</v>
       </c>
-      <c r="K29" t="n">
-        <v>144</v>
-      </c>
       <c r="L29" t="n">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="M29" t="n">
-        <v>15.35796521690001</v>
+        <v>17.07299013844288</v>
       </c>
       <c r="N29" t="n">
-        <v>15.85383544142088</v>
+        <v>17.83135609421139</v>
       </c>
       <c r="O29" t="n">
-        <v>2836.418011574845</v>
+        <v>2833.286711966563</v>
       </c>
       <c r="P29" t="n">
-        <v>17.75132808275112</v>
+        <v>27.20117440766622</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.1152777777777778</v>
+        <v>0.2053511301977579</v>
       </c>
       <c r="R29" t="inlineStr"/>
       <c r="S29" t="inlineStr"/>
       <c r="T29" t="inlineStr">
         <is>
-          <t>[142, 63, 65, 144]</t>
+          <t>[143, 64, 97, 63, 142]</t>
         </is>
       </c>
       <c r="U29" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B30" t="n">
         <v>142</v>
       </c>
       <c r="C30" t="n">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D30" t="n">
         <v>144</v>
@@ -4064,7 +4031,7 @@
         <v>1</v>
       </c>
       <c r="G30" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H30" t="n">
         <v>1</v>
@@ -4079,19 +4046,19 @@
         <v>144</v>
       </c>
       <c r="L30" t="n">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="M30" t="n">
-        <v>15.37463188356668</v>
+        <v>17.88547719835947</v>
       </c>
       <c r="N30" t="n">
-        <v>16.23827761313347</v>
+        <v>18.35628582726707</v>
       </c>
       <c r="O30" t="n">
-        <v>2832.030834345667</v>
+        <v>2836.716970206111</v>
       </c>
       <c r="P30" t="n">
-        <v>27.20117440766623</v>
+        <v>16.84911064067352</v>
       </c>
       <c r="Q30" t="n">
         <v>0.1152777777777778</v>
@@ -4109,17 +4076,17 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B31" t="n">
+        <v>142</v>
+      </c>
+      <c r="C31" t="n">
+        <v>96</v>
+      </c>
+      <c r="D31" t="n">
         <v>144</v>
       </c>
-      <c r="C31" t="n">
-        <v>70</v>
-      </c>
-      <c r="D31" t="n">
-        <v>118</v>
-      </c>
       <c r="E31" t="n">
         <v>1</v>
       </c>
@@ -4127,7 +4094,7 @@
         <v>1</v>
       </c>
       <c r="G31" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H31" t="n">
         <v>1</v>
@@ -4136,115 +4103,115 @@
         <v>1</v>
       </c>
       <c r="J31" t="n">
+        <v>142</v>
+      </c>
+      <c r="K31" t="n">
         <v>144</v>
       </c>
-      <c r="K31" t="n">
-        <v>118</v>
-      </c>
       <c r="L31" t="n">
-        <v>70</v>
+        <v>96</v>
       </c>
       <c r="M31" t="n">
-        <v>16.26327761313347</v>
+        <v>17.90214386502614</v>
       </c>
       <c r="N31" t="n">
-        <v>17.49254084595012</v>
+        <v>18.30294914848425</v>
       </c>
       <c r="O31" t="n">
-        <v>2827.66939982151</v>
+        <v>2837.552036921834</v>
       </c>
       <c r="P31" t="n">
-        <v>66.27540872475335</v>
+        <v>14.32899020449196</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.4214642336093501</v>
+        <v>0.1152777777777778</v>
       </c>
       <c r="R31" t="inlineStr"/>
       <c r="S31" t="inlineStr"/>
       <c r="T31" t="inlineStr">
         <is>
-          <t>[144, 65, 26, 4, 39, 118]</t>
+          <t>[142, 63, 65, 144]</t>
         </is>
       </c>
       <c r="U31" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B32" t="n">
-        <v>143</v>
+        <v>113</v>
       </c>
       <c r="C32" t="n">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D32" t="n">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E32" t="n">
         <v>2</v>
       </c>
       <c r="F32" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G32" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H32" t="n">
         <v>2</v>
       </c>
       <c r="I32" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J32" t="n">
-        <v>143</v>
+        <v>113</v>
       </c>
       <c r="K32" t="n">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="L32" t="n">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="M32" t="n">
-        <v>17.35304134327536</v>
+        <v>19.54511224874668</v>
       </c>
       <c r="N32" t="n">
-        <v>17.94844112146736</v>
+        <v>20.86456663541615</v>
       </c>
       <c r="O32" t="n">
-        <v>2835.230728067637</v>
+        <v>2826.593513659904</v>
       </c>
       <c r="P32" t="n">
-        <v>21.33439201491209</v>
+        <v>47.40035792010114</v>
       </c>
       <c r="Q32" t="n">
-        <v>0.4155510192937591</v>
+        <v>1.042679827114809</v>
       </c>
       <c r="R32" t="inlineStr"/>
       <c r="S32" t="inlineStr"/>
       <c r="T32" t="inlineStr">
         <is>
-          <t>[143, 64, 97, 95, 98, 77, 49, 128]</t>
+          <t>[113, 34, 106, 76, 37, 51, 130]</t>
         </is>
       </c>
       <c r="U32" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B33" t="n">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="C33" t="n">
-        <v>96</v>
+        <v>66</v>
       </c>
       <c r="D33" t="n">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E33" t="n">
         <v>2</v>
@@ -4253,7 +4220,7 @@
         <v>2</v>
       </c>
       <c r="G33" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="H33" t="n">
         <v>2</v>
@@ -4262,105 +4229,105 @@
         <v>2</v>
       </c>
       <c r="J33" t="n">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="K33" t="n">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="L33" t="n">
-        <v>96</v>
+        <v>66</v>
       </c>
       <c r="M33" t="n">
-        <v>18.12386173652529</v>
+        <v>21.11287023650458</v>
       </c>
       <c r="N33" t="n">
-        <v>18.5246670199834</v>
+        <v>21.69184811891749</v>
       </c>
       <c r="O33" t="n">
-        <v>2837.552036921834</v>
+        <v>2835.426624113549</v>
       </c>
       <c r="P33" t="n">
-        <v>14.32899020449196</v>
+        <v>20.74320376686506</v>
       </c>
       <c r="Q33" t="n">
-        <v>0.1152777777777778</v>
+        <v>0.5748112157462515</v>
       </c>
       <c r="R33" t="inlineStr"/>
       <c r="S33" t="inlineStr"/>
       <c r="T33" t="inlineStr">
         <is>
-          <t>[142, 63, 65, 144]</t>
+          <t>[132, 53, 87, 66, 64, 143]</t>
         </is>
       </c>
       <c r="U33" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B34" t="n">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="C34" t="n">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D34" t="n">
-        <v>116</v>
+        <v>142</v>
       </c>
       <c r="E34" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F34" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G34" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I34" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J34" t="n">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="K34" t="n">
-        <v>116</v>
+        <v>142</v>
       </c>
       <c r="L34" t="n">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="M34" t="n">
-        <v>19.55487535881775</v>
+        <v>23.00602440573152</v>
       </c>
       <c r="N34" t="n">
-        <v>20.07315002240901</v>
+        <v>23.39122429482752</v>
       </c>
       <c r="O34" t="n">
-        <v>2836.150750042814</v>
+        <v>2837.738192959576</v>
       </c>
       <c r="P34" t="n">
-        <v>19.68583258222809</v>
+        <v>13.76719600745604</v>
       </c>
       <c r="Q34" t="n">
-        <v>0.5182746635912636</v>
+        <v>0.3851998890959969</v>
       </c>
       <c r="R34" t="n">
-        <v>18.55788788928555</v>
+        <v>13.76719600745604</v>
       </c>
       <c r="S34" t="n">
-        <v>1.036549327182527</v>
+        <v>0.7703997781919938</v>
       </c>
       <c r="T34" t="inlineStr">
         <is>
-          <t>[130, 51, 93, 37, 116]</t>
+          <t>[143, 64, 97, 95, 97, 63, 142]</t>
         </is>
       </c>
       <c r="U34" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
